--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3479.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3479.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.109248943867889</v>
+        <v>0.76699298620224</v>
       </c>
       <c r="B1">
-        <v>1.996372623403899</v>
+        <v>1.601200342178345</v>
       </c>
       <c r="C1">
-        <v>7.060273136576833</v>
+        <v>4.200932502746582</v>
       </c>
       <c r="D1">
-        <v>3.825729942908834</v>
+        <v>3.713629722595215</v>
       </c>
       <c r="E1">
-        <v>1.528727538161428</v>
+        <v>1.79625403881073</v>
       </c>
     </row>
   </sheetData>
